--- a/ours/phone/results/mean.xlsx
+++ b/ours/phone/results/mean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9525239922316712</v>
+        <v>0.9549340680305669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3640694530176436</v>
+        <v>0.3826870143850591</v>
       </c>
       <c r="E2" t="n">
-        <v>0.632502800229171</v>
+        <v>0.6402608138368794</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6820498298922379</v>
+        <v>0.690444788904087</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4865294078796659</v>
+        <v>0.4974641447746154</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6820498298922379</v>
+        <v>0.690444788904087</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6582967226246573</v>
+        <v>0.668810541207813</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8678415469712186</v>
+        <v>0.8496665835512984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09022557233758698</v>
+        <v>0.07829238565188694</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3170911041935717</v>
+        <v>0.2855776422325266</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3943187432670649</v>
+        <v>0.3736214412158148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1601761984352047</v>
+        <v>0.1313582082554812</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3943187432670649</v>
+        <v>0.3736214412158148</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4790335596544028</v>
+        <v>0.4639794846015927</v>
       </c>
     </row>
     <row r="4">
@@ -549,492 +549,1050 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6840926934249558</v>
+        <v>0.666633710247309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02095017064248165</v>
+        <v>0.02082929459940698</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07908767184445516</v>
+        <v>0.08208446323326223</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1312154790942133</v>
+        <v>0.1410939068723545</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01782546664124969</v>
+        <v>0.01701946773896661</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1312154790942133</v>
+        <v>0.1410939068723545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3525214320337187</v>
+        <v>0.343731502423358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9248945574506637</v>
+        <v>0.9525239922316712</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7478630274019367</v>
+        <v>0.3640694530176436</v>
       </c>
       <c r="E5" t="n">
-        <v>0.865137098627782</v>
+        <v>0.632502800229171</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8730742169903393</v>
+        <v>0.6820498298922379</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8055045557313709</v>
+        <v>0.4865294078796659</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8720639201194542</v>
+        <v>0.6820498298922379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8363787924263002</v>
+        <v>0.6582967226246573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7930921625013871</v>
+        <v>0.8678415469712186</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4162643193798728</v>
+        <v>0.09022557233758698</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6585964009515938</v>
+        <v>0.3170911041935717</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6829049114516096</v>
+        <v>0.3943187432670649</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5285869378957848</v>
+        <v>0.1601761984352047</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6804456769540317</v>
+        <v>0.3943187432670649</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6046782409406299</v>
+        <v>0.4790335596544028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5142457676713088</v>
+        <v>0.6840926934249558</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05023923165264159</v>
+        <v>0.02095017064248165</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1762406670078904</v>
+        <v>0.07908767184445516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.228145190794997</v>
+        <v>0.1312154790942133</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08088120953686492</v>
+        <v>0.01782546664124969</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2225076591077488</v>
+        <v>0.1312154790942133</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2822424996619752</v>
+        <v>0.3525214320337187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9779775860437678</v>
+        <v>0.9069508023751216</v>
       </c>
       <c r="D8" t="n">
-        <v>0.895022495670564</v>
+        <v>0.6841361177614318</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9565867089580177</v>
+        <v>0.8296658051120758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9591041105653112</v>
+        <v>0.8439970127716913</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9272560229351453</v>
+        <v>0.7538648342463323</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9589278285140292</v>
+        <v>0.8435089420491043</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9365000408571659</v>
+        <v>0.7955434600682768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.882070146305268</v>
+        <v>0.7554596068468987</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6386266368913016</v>
+        <v>0.2727775489683807</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8286982859069598</v>
+        <v>0.5040911677978865</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8411014494899184</v>
+        <v>0.5520861623288711</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7316959701033114</v>
+        <v>0.3613651756536383</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8400032455119318</v>
+        <v>0.5501016998114446</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7603483915982848</v>
+        <v>0.5141185779076397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5064052083111704</v>
+        <v>0.5582319740245665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1242312267310944</v>
+        <v>0.0410682181992035</v>
       </c>
       <c r="E10" t="n">
-        <v>0.364380901846148</v>
+        <v>0.1372556173531455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4230791256156927</v>
+        <v>0.1959773198800017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2039792867723061</v>
+        <v>0.0585348393976624</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4102783774147511</v>
+        <v>0.1940658578344327</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3153182175211324</v>
+        <v>0.299650096111885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9896215096000003</v>
+        <v>0.9248945574506637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9463359393206559</v>
+        <v>0.7478630274019367</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9806518125752103</v>
+        <v>0.865137098627782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9817666629691595</v>
+        <v>0.8730742169903393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9636421947020576</v>
+        <v>0.8055045557313709</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9814393408347721</v>
+        <v>0.8720639201194542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9679787244603281</v>
+        <v>0.8363787924263002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9288205516420226</v>
+        <v>0.7930921625013871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7788870914469342</v>
+        <v>0.4162643193798728</v>
       </c>
       <c r="E12" t="n">
-        <v>0.902303483958515</v>
+        <v>0.6585964009515938</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9076628642560992</v>
+        <v>0.6829049114516096</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8392192570893078</v>
+        <v>0.5285869378957848</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9062266591960871</v>
+        <v>0.6804456769540317</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8538538215444785</v>
+        <v>0.6046782409406299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5790075606945939</v>
+        <v>0.5142457676713088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1953343893658313</v>
+        <v>0.05023923165264159</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4695911453097875</v>
+        <v>0.1762406670078904</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5124575221409112</v>
+        <v>0.228145190794997</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2980338348290191</v>
+        <v>0.08088120953686492</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5016034293085154</v>
+        <v>0.2225076591077488</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3871709750302126</v>
+        <v>0.2822424996619752</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9984680361812276</v>
+        <v>0.9697450828327357</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9858615819124165</v>
+        <v>0.8627918243307235</v>
       </c>
       <c r="E14" t="n">
-        <v>0.993644029308868</v>
+        <v>0.9410601039110038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9939230094694197</v>
+        <v>0.9436437982337514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9885912259454824</v>
+        <v>0.8986330291652175</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9938460863924965</v>
+        <v>0.9434171315670847</v>
       </c>
       <c r="I14" t="n">
-        <v>0.992164809046822</v>
+        <v>0.9162684535817297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9897802063349812</v>
+        <v>0.8442188956525049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.94290521012192</v>
+        <v>0.5417525016433423</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9744061964356995</v>
+        <v>0.751379557407973</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9756218517100944</v>
+        <v>0.777061343493381</v>
       </c>
       <c r="G15" t="n">
-        <v>0.956676651319</v>
+        <v>0.6290150329267822</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9755309426191855</v>
+        <v>0.7764137656041471</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9663427082284506</v>
+        <v>0.6929856986479235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8747379280480063</v>
+        <v>0.5170685193866125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6351770187837076</v>
+        <v>0.117851348959145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8067056933066955</v>
+        <v>0.3438619750062489</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8174138439026839</v>
+        <v>0.4059373803172973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7065101772553458</v>
+        <v>0.190513069028668</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8163419081005786</v>
+        <v>0.3997771141989648</v>
       </c>
       <c r="I16" t="n">
-        <v>0.754957473415857</v>
+        <v>0.3174599341728787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9920162844679536</v>
+        <v>0.9779775860437678</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9442926115177317</v>
+        <v>0.895022495670564</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9745507851814185</v>
+        <v>0.9565867089580177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9756979240677642</v>
+        <v>0.9591041105653112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9532578185906854</v>
+        <v>0.9272560229351453</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9756979240677642</v>
+        <v>0.9589278285140292</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9681544479928427</v>
+        <v>0.9365000408571659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9724329497868074</v>
+        <v>0.882070146305268</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8840046476602728</v>
+        <v>0.6386266368913016</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9484651293151101</v>
+        <v>0.8286982859069598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9504305159209053</v>
+        <v>0.8411014494899184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9116402874019677</v>
+        <v>0.7316959701033114</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9503564418468313</v>
+        <v>0.8400032455119318</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9282187987235401</v>
+        <v>0.7603483915982848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
+        <v>0.5064052083111704</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1242312267310944</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.364380901846148</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4230791256156927</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2039792867723061</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4102783774147511</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3153182175211324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9786097188664725</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9096377967229181</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9637483095141635</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9641806402533126</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9318363153746259</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9629875488642621</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9441237577946954</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9041964171004482</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6809578869425594</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8455275103472539</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8562593737068289</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7483016001358005</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8555647038559825</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7925771520215038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5895786058634032</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1888583106826969</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4535302442115538</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5026659198734218</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2848627865016851</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4969494807815046</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.38921845827305</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9896215096000003</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9463359393206559</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9806518125752103</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9817666629691595</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9636421947020576</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9814393408347721</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9679787244603281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9288205516420226</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7788870914469342</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.902303483958515</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9076628642560992</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8392192570893078</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9062266591960871</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8538538215444785</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5790075606945939</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1953343893658313</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4695911453097875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5124575221409112</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2980338348290191</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5016034293085154</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3871709750302126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9972502289797293</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9745634808627149</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.988420802030626</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9890165969284326</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9786779594828229</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9890165969284326</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9859068549212221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9865459055965875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9164866185206346</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9583551853588531</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9599704773979821</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9249797234675543</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9599704773979821</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9515162620586112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8801364091046889</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6378899091230749</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8040672689555002</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.816562561746769</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7031458351901446</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8161632675626921</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7590131591138819</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9984680361812276</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9858615819124165</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.993644029308868</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9939230094694197</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9885912259454824</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9938460863924965</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.992164809046822</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9897802063349812</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.94290521012192</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9744061964356995</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9756218517100944</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.956676651319</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9755309426191855</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9663427082284506</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8747379280480063</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6351770187837076</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8067056933066955</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8174138439026839</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7065101772553458</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8163419081005786</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.754957473415857</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9875669285963117</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9362166846208936</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9698075322816408</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.970692745741811</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9459802734175088</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.970692745741811</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9618918066086026</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9332544939243493</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7778331200612586</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8917504191653172</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8954974649947955</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8183144546514826</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8948365426763732</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.855543806992804</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6728505382107085</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3226501091000271</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5688650759629064</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5965030727739417</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4150663325568198</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5925616943714798</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4977503236553678</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9920162844679536</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9442926115177317</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9745507851814185</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9756979240677642</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9532578185906854</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9756979240677642</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9681544479928427</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9724329497868074</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8840046476602728</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9484651293151101</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9504305159209053</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9116402874019677</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9503564418468313</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9282187987235401</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.8344853399636448</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D37" t="n">
         <v>0.5853633348825047</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E37" t="n">
         <v>0.7726918950111972</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F37" t="n">
         <v>0.7863639867289034</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G37" t="n">
         <v>0.6609946872692217</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H37" t="n">
         <v>0.7845248626826394</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I37" t="n">
         <v>0.7099243374230748</v>
       </c>
     </row>

--- a/ours/phone/results/mean.xlsx
+++ b/ours/phone/results/mean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>O-CoAtNet</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -514,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>O-CoAtNet</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -545,7 +545,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>O-CoAtNet</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -576,1024 +576,466 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9525239922316712</v>
+        <v>0.9069508023751216</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3640694530176436</v>
+        <v>0.6841361177614318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.632502800229171</v>
+        <v>0.8296658051120758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6820498298922379</v>
+        <v>0.8439970127716913</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4865294078796659</v>
+        <v>0.7538648342463323</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6820498298922379</v>
+        <v>0.8435089420491043</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6582967226246573</v>
+        <v>0.7955434600682768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8678415469712186</v>
+        <v>0.7554596068468987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09022557233758698</v>
+        <v>0.2727775489683807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3170911041935717</v>
+        <v>0.5040911677978865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3943187432670649</v>
+        <v>0.5520861623288711</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1601761984352047</v>
+        <v>0.3613651756536383</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3943187432670649</v>
+        <v>0.5501016998114446</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4790335596544028</v>
+        <v>0.5141185779076397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6840926934249558</v>
+        <v>0.5582319740245665</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02095017064248165</v>
+        <v>0.0410682181992035</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07908767184445516</v>
+        <v>0.1372556173531455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1312154790942133</v>
+        <v>0.1959773198800017</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01782546664124969</v>
+        <v>0.0585348393976624</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1312154790942133</v>
+        <v>0.1940658578344327</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3525214320337187</v>
+        <v>0.299650096111885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9069508023751216</v>
+        <v>0.9697450828327357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6841361177614318</v>
+        <v>0.8627918243307235</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8296658051120758</v>
+        <v>0.9410601039110038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8439970127716913</v>
+        <v>0.9436437982337514</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7538648342463323</v>
+        <v>0.8986330291652175</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8435089420491043</v>
+        <v>0.9434171315670847</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7955434600682768</v>
+        <v>0.9162684535817297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7554596068468987</v>
+        <v>0.8442188956525049</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2727775489683807</v>
+        <v>0.5417525016433423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5040911677978865</v>
+        <v>0.751379557407973</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5520861623288711</v>
+        <v>0.777061343493381</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3613651756536383</v>
+        <v>0.6290150329267822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5501016998114446</v>
+        <v>0.7764137656041471</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5141185779076397</v>
+        <v>0.6929856986479235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5582319740245665</v>
+        <v>0.5170685193866125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0410682181992035</v>
+        <v>0.117851348959145</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1372556173531455</v>
+        <v>0.3438619750062489</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1959773198800017</v>
+        <v>0.4059373803172973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0585348393976624</v>
+        <v>0.190513069028668</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1940658578344327</v>
+        <v>0.3997771141989648</v>
       </c>
       <c r="I10" t="n">
-        <v>0.299650096111885</v>
+        <v>0.3174599341728787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9248945574506637</v>
+        <v>0.9786097188664725</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7478630274019367</v>
+        <v>0.9096377967229181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.865137098627782</v>
+        <v>0.9637483095141635</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8730742169903393</v>
+        <v>0.9641806402533126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8055045557313709</v>
+        <v>0.9318363153746259</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8720639201194542</v>
+        <v>0.9629875488642621</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8363787924263002</v>
+        <v>0.9441237577946954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7930921625013871</v>
+        <v>0.9041964171004482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4162643193798728</v>
+        <v>0.6809578869425594</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6585964009515938</v>
+        <v>0.8455275103472539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6829049114516096</v>
+        <v>0.8562593737068289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5285869378957848</v>
+        <v>0.7483016001358005</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6804456769540317</v>
+        <v>0.8555647038559825</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6046782409406299</v>
+        <v>0.7925771520215038</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5142457676713088</v>
+        <v>0.5895786058634032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05023923165264159</v>
+        <v>0.1888583106826969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1762406670078904</v>
+        <v>0.4535302442115538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.228145190794997</v>
+        <v>0.5026659198734218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08088120953686492</v>
+        <v>0.2848627865016851</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2225076591077488</v>
+        <v>0.4969494807815046</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2822424996619752</v>
+        <v>0.38921845827305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9697450828327357</v>
+        <v>0.9972502289797293</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8627918243307235</v>
+        <v>0.9745634808627149</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9410601039110038</v>
+        <v>0.988420802030626</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9436437982337514</v>
+        <v>0.9890165969284326</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8986330291652175</v>
+        <v>0.9786779594828229</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9434171315670847</v>
+        <v>0.9890165969284326</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9162684535817297</v>
+        <v>0.9859068549212221</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8442188956525049</v>
+        <v>0.9865459055965875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5417525016433423</v>
+        <v>0.9164866185206346</v>
       </c>
       <c r="E15" t="n">
-        <v>0.751379557407973</v>
+        <v>0.9583551853588531</v>
       </c>
       <c r="F15" t="n">
-        <v>0.777061343493381</v>
+        <v>0.9599704773979821</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6290150329267822</v>
+        <v>0.9249797234675543</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7764137656041471</v>
+        <v>0.9599704773979821</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6929856986479235</v>
+        <v>0.9515162620586112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5170685193866125</v>
+        <v>0.8801364091046889</v>
       </c>
       <c r="D16" t="n">
-        <v>0.117851348959145</v>
+        <v>0.6378899091230749</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3438619750062489</v>
+        <v>0.8040672689555002</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4059373803172973</v>
+        <v>0.816562561746769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.190513069028668</v>
+        <v>0.7031458351901446</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3997771141989648</v>
+        <v>0.8161632675626921</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3174599341728787</v>
+        <v>0.7590131591138819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9779775860437678</v>
+        <v>0.9966415324130984</v>
       </c>
       <c r="D17" t="n">
-        <v>0.895022495670564</v>
+        <v>0.9771568724415449</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9565867089580177</v>
+        <v>0.9898875468842071</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9591041105653112</v>
+        <v>0.990124616660943</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9272560229351453</v>
+        <v>0.9818117926316478</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9589278285140292</v>
+        <v>0.990124616660943</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9365000408571659</v>
+        <v>0.9868992024273218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.5</v>
+        <v>0.024</v>
       </c>
       <c r="C18" t="n">
-        <v>0.882070146305268</v>
+        <v>0.9802166392706738</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6386266368913016</v>
+        <v>0.9078284426316638</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8286982859069598</v>
+        <v>0.9596782427627741</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8411014494899184</v>
+        <v>0.9603205459683014</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7316959701033114</v>
+        <v>0.9268349224487573</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8400032455119318</v>
+        <v>0.9602464718942273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7603483915982848</v>
+        <v>0.9440225409511688</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5064052083111704</v>
+        <v>0.8646528766601077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1242312267310944</v>
+        <v>0.6229303696091353</v>
       </c>
       <c r="E19" t="n">
-        <v>0.364380901846148</v>
+        <v>0.8065600479351931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4230791256156927</v>
+        <v>0.8151243838207933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2039792867723061</v>
+        <v>0.7010531930215409</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4102783774147511</v>
+        <v>0.813947903866149</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3153182175211324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9786097188664725</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9096377967229181</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9637483095141635</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9641806402533126</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9318363153746259</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9629875488642621</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9441237577946954</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9041964171004482</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6809578869425594</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8455275103472539</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8562593737068289</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.7483016001358005</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.8555647038559825</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.7925771520215038</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5895786058634032</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1888583106826969</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4535302442115538</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.5026659198734218</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2848627865016851</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4969494807815046</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.38921845827305</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9896215096000003</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9463359393206559</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9806518125752103</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9817666629691595</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9636421947020576</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.9814393408347721</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9679787244603281</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9288205516420226</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7788870914469342</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.902303483958515</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9076628642560992</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8392192570893078</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.9062266591960871</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.8538538215444785</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5790075606945939</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1953343893658313</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4695911453097875</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.5124575221409112</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2980338348290191</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.5016034293085154</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.3871709750302126</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.9972502289797293</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9745634808627149</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.988420802030626</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9890165969284326</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9786779594828229</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.9890165969284326</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.9859068549212221</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9865459055965875</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9164866185206346</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9583551853588531</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9599704773979821</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9249797234675543</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9599704773979821</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.9515162620586112</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8801364091046889</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6378899091230749</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.8040672689555002</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.816562561746769</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.7031458351901446</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.8161632675626921</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.7590131591138819</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.9984680361812276</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9858615819124165</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.993644029308868</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9939230094694197</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.9885912259454824</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.9938460863924965</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.992164809046822</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9897802063349812</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.94290521012192</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.9744061964356995</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9756218517100944</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.956676651319</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.9755309426191855</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.9663427082284506</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.8747379280480063</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.6351770187837076</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.8067056933066955</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.8174138439026839</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.7065101772553458</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.8163419081005786</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.754957473415857</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9875669285963117</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9362166846208936</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.9698075322816408</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.970692745741811</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.9459802734175088</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.970692745741811</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.9618918066086026</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.9332544939243493</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.7778331200612586</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.8917504191653172</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.8954974649947955</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.8183144546514826</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.8948365426763732</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.855543806992804</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.6728505382107085</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.3226501091000271</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5688650759629064</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.5965030727739417</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4150663325568198</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.5925616943714798</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.4977503236553678</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.9920162844679536</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9442926115177317</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.9745507851814185</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.9756979240677642</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.9532578185906854</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.9756979240677642</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.9681544479928427</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.9724329497868074</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.8840046476602728</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.9484651293151101</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9504305159209053</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9116402874019677</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.9503564418468313</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.9282187987235401</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.8344853399636448</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5853633348825047</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.7726918950111972</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.7863639867289034</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.6609946872692217</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.7845248626826394</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.7099243374230748</v>
+        <v>0.7437916231346214</v>
       </c>
     </row>
   </sheetData>

--- a/ours/phone/results/mean.xlsx
+++ b/ours/phone/results/mean.xlsx
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -979,7 +979,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1010,7 +1010,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B19" t="n">
